--- a/biology/Médecine/Girolamo_Mercuriale/Girolamo_Mercuriale.xlsx
+++ b/biology/Médecine/Girolamo_Mercuriale/Girolamo_Mercuriale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Girolamo Mercuriale (aussi connu sous le nom de Jérôme Mercurialis, Geronimo Mercuriale, Hieronymus ou Hieronymi Mercurialis) (né le 30 septembre 1530 à Forlì et mort le 8 novembre 1606 (à 76 ans) dans la même ville) est un médecin et philologue italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Girolamo Mercuriale naît à Forlì, en Émilie-Romagne, d'une famille distinguée. Après de solides études préliminaires, il suit des cours de médecine à Bologne. Il reçoit le bonnet de docteur à l'université de Padoue. De retour à Forlì en 1562, il est envoyé par ses concitoyens pour traiter d'affaires importantes à Rome, à la cour du pape Pie IV, sollicité par le cardinal Farnèse. Pendant son séjour, qui durera sept ans, il écrit De arte gymnastica, qui lui donne une grande réputation dans le monde des lettres.
 En 1569, il est nommé par la République de Venise à la chaire de médecine de l'université de Padoue. L'empereur Maximilien II le fait venir à Vienne pour le consulter sur sa santé. Mercuriale ayant donné entière satisfaction à l'empereur, il reçoit de nombreux présents et est anobli.
@@ -544,7 +558,9 @@
           <t>De arte gymnastica</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un ouvrage savant, composé à l'aide des monuments de l'Antiquité et des livres renfermés dans les riches bibliothèques de Rome. On y trouve des recherches curieuses sur les gymnases des anciens, sur toutes les espèces d'exercices et de jeux auxquels ils se livraient, sur leurs effets tant en maladie qu'en santé.
 </t>
@@ -575,7 +591,9 @@
           <t>Liste des œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nomothesaurus, seu ratio lactandi infantes, Padoue, 1552.
 De arte gymnastica en six livres, Venise, 1569, avec des figures de Coriolan.
